--- a/medicine/Enfance/Judith_Viorst/Judith_Viorst.xlsx
+++ b/medicine/Enfance/Judith_Viorst/Judith_Viorst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judith Viorst (née le 2 février 1931) est une écrivaine et journaliste américaine. Elle est connue pour ses poèmes et romans de littérature enfantine comme « The Tenth Good Thing About Barney » (l'histoire du deuil face la mort d'un animal de compagnie), la série de nouvelles « Alexander » et le best-seller Les renoncements nécessaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin des années 1970, après deux décennies consacrées à l'écriture de romans et essais pour adultes et enfants, elle se tourne vers l'étude de la psychanalyse et sort diplômée en 1981 du Washington Psychoanalytic Institute. 
 </t>
@@ -542,7 +556,9 @@
           <t>citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">-La force, c'est de pouvoir casser une barre de chocolat en quatre et de n'en manger qu'un carré.
 </t>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les renoncements nécessaires (« Necessary Losses », 1986), 1988, éditions Robert Laffont, Paris,  (ISBN 978-2-266-10085-4)
 Renoncer à tout contrôler (« Imperfect Control », 1998), 1999, éditions Robert Laffont, Paris,  (ISBN 978-2-266-10086-1)</t>
